--- a/Example_excel_format.xlsx
+++ b/Example_excel_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkabir02\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OW Display\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F293B67-D295-4407-B6E7-AF198A68A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706BC925-E0DB-4739-B890-A3AB031A4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FED995F8-1CC2-464C-A161-F2DA534FACD3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{FED995F8-1CC2-464C-A161-F2DA534FACD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>MMM Classification</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Changed</t>
   </si>
 </sst>
 </file>
@@ -272,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -418,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,22 +574,22 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
-    <col min="12" max="12" width="34.36328125" customWidth="1"/>
-    <col min="13" max="13" width="27.1796875" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -669,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -710,12 +713,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -751,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -792,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -833,7 +836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -874,7 +877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -915,7 +918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -956,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>

--- a/Example_excel_format.xlsx
+++ b/Example_excel_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OW Display\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706BC925-E0DB-4739-B890-A3AB031A4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ADF739-41B9-41FA-B9B4-615277932854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{FED995F8-1CC2-464C-A161-F2DA534FACD3}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>40</v>

--- a/Example_excel_format.xlsx
+++ b/Example_excel_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OW Display\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ADF739-41B9-41FA-B9B4-615277932854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0076138-43B1-4BD8-B5B3-356E3A4421A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{FED995F8-1CC2-464C-A161-F2DA534FACD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="42">
   <si>
     <t>MMM Classification</t>
   </si>
@@ -158,7 +158,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Changed</t>
+    <t>grtbd</t>
+  </si>
+  <si>
+    <t>ujytb</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>40</v>

--- a/Example_excel_format.xlsx
+++ b/Example_excel_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OW Display\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0076138-43B1-4BD8-B5B3-356E3A4421A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC926D7-F1B6-4C86-9F76-ED4255BCFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{FED995F8-1CC2-464C-A161-F2DA534FACD3}"/>
   </bookViews>
